--- a/EV_Obsession_2017.xlsx
+++ b/EV_Obsession_2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Dropbox/Data/EV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/src/evsales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647031C-6A5E-A243-9127-BEFDB532054A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F320C72-F772-7746-84CF-B0C577DA5C3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="1340" windowWidth="20060" windowHeight="12780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BMW i3</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Tesla Model 3</t>
+  </si>
+  <si>
+    <t>Kia Soul EV</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +525,7 @@
         <v>2500</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="1">SUM(B3:M3)</f>
+        <f t="shared" ref="N3:N10" si="1">SUM(B3:M3)</f>
         <v>24049</v>
       </c>
       <c r="XFD3" s="1"/>
@@ -822,6 +825,11 @@
       <c r="N10">
         <f t="shared" si="1"/>
         <v>1772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
